--- a/keyword/B08K42K3DM-1-100.xlsx
+++ b/keyword/B08K42K3DM-1-100.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\git\kw-rank\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4B28F-E0EE-4FCC-836D-9628D1E70F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BCB611-9894-4BB8-A06F-9BA61E461D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B08K47P9FC" sheetId="1" r:id="rId1"/>
+    <sheet name="B08K42K3DM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -688,7 +688,7 @@
   <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
